--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.7497404582624</v>
+        <v>37.833119</v>
       </c>
       <c r="H2">
-        <v>34.7497404582624</v>
+        <v>113.499357</v>
       </c>
       <c r="I2">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="J2">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>3675.854323208012</v>
+        <v>4428.160880281997</v>
       </c>
       <c r="R2">
-        <v>3675.854323208012</v>
+        <v>39853.44792253798</v>
       </c>
       <c r="S2">
-        <v>0.07947818802836643</v>
+        <v>0.0899389927691269</v>
       </c>
       <c r="T2">
-        <v>0.07947818802836643</v>
+        <v>0.0899389927691269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.7497404582624</v>
+        <v>37.833119</v>
       </c>
       <c r="H3">
-        <v>34.7497404582624</v>
+        <v>113.499357</v>
       </c>
       <c r="I3">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="J3">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>3526.795146497142</v>
+        <v>3843.089640456443</v>
       </c>
       <c r="R3">
-        <v>3526.795146497142</v>
+        <v>34587.80676410798</v>
       </c>
       <c r="S3">
-        <v>0.07625527650024011</v>
+        <v>0.07805579352891692</v>
       </c>
       <c r="T3">
-        <v>0.07625527650024011</v>
+        <v>0.07805579352891689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.7497404582624</v>
+        <v>37.833119</v>
       </c>
       <c r="H4">
-        <v>34.7497404582624</v>
+        <v>113.499357</v>
       </c>
       <c r="I4">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="J4">
-        <v>0.2612030230048237</v>
+        <v>0.2771305381131279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>4877.951323616901</v>
+        <v>5373.316422035931</v>
       </c>
       <c r="R4">
-        <v>4877.951323616901</v>
+        <v>48359.84779832338</v>
       </c>
       <c r="S4">
-        <v>0.1054695584762171</v>
+        <v>0.1091357518150841</v>
       </c>
       <c r="T4">
-        <v>0.1054695584762171</v>
+        <v>0.1091357518150841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.7553337948869</v>
+        <v>63.88336466666667</v>
       </c>
       <c r="H5">
-        <v>63.7553337948869</v>
+        <v>191.650094</v>
       </c>
       <c r="I5">
-        <v>0.4792290733770494</v>
+        <v>0.4679506129682439</v>
       </c>
       <c r="J5">
-        <v>0.4792290733770494</v>
+        <v>0.467950612968244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>6744.088337551382</v>
+        <v>7477.200500379641</v>
       </c>
       <c r="R5">
-        <v>6744.088337551382</v>
+        <v>67294.80450341677</v>
       </c>
       <c r="S5">
-        <v>0.1458185972136225</v>
+        <v>0.1518670843084027</v>
       </c>
       <c r="T5">
-        <v>0.1458185972136225</v>
+        <v>0.1518670843084027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.7553337948869</v>
+        <v>63.88336466666667</v>
       </c>
       <c r="H6">
-        <v>63.7553337948869</v>
+        <v>191.650094</v>
       </c>
       <c r="I6">
-        <v>0.4792290733770494</v>
+        <v>0.4679506129682439</v>
       </c>
       <c r="J6">
-        <v>0.4792290733770494</v>
+        <v>0.467950612968244</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>6470.609530484983</v>
+        <v>6489.274567818949</v>
       </c>
       <c r="R6">
-        <v>6470.609530484983</v>
+        <v>58403.47111037053</v>
       </c>
       <c r="S6">
-        <v>0.1399055228263798</v>
+        <v>0.1318016292115339</v>
       </c>
       <c r="T6">
-        <v>0.1399055228263798</v>
+        <v>0.1318016292115339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.7553337948869</v>
+        <v>63.88336466666667</v>
       </c>
       <c r="H7">
-        <v>63.7553337948869</v>
+        <v>191.650094</v>
       </c>
       <c r="I7">
-        <v>0.4792290733770494</v>
+        <v>0.4679506129682439</v>
       </c>
       <c r="J7">
-        <v>0.4792290733770494</v>
+        <v>0.467950612968244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>8949.575184480578</v>
+        <v>9073.149175417178</v>
       </c>
       <c r="R7">
-        <v>8949.575184480578</v>
+        <v>81658.3425787546</v>
       </c>
       <c r="S7">
-        <v>0.1935049533370471</v>
+        <v>0.1842818994483074</v>
       </c>
       <c r="T7">
-        <v>0.1935049533370471</v>
+        <v>0.1842818994483074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.5322086178865</v>
+        <v>34.80083866666666</v>
       </c>
       <c r="H8">
-        <v>34.5322086178865</v>
+        <v>104.402516</v>
       </c>
       <c r="I8">
-        <v>0.2595679036181269</v>
+        <v>0.2549188489186281</v>
       </c>
       <c r="J8">
-        <v>0.2595679036181269</v>
+        <v>0.2549188489186282</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>3652.843637506876</v>
+        <v>4073.248953773502</v>
       </c>
       <c r="R8">
-        <v>3652.843637506876</v>
+        <v>36659.24058396152</v>
       </c>
       <c r="S8">
-        <v>0.07898065808185308</v>
+        <v>0.08273048746525193</v>
       </c>
       <c r="T8">
-        <v>0.07898065808185308</v>
+        <v>0.08273048746525194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.5322086178865</v>
+        <v>34.80083866666666</v>
       </c>
       <c r="H9">
-        <v>34.5322086178865</v>
+        <v>104.402516</v>
       </c>
       <c r="I9">
-        <v>0.2595679036181269</v>
+        <v>0.2549188489186281</v>
       </c>
       <c r="J9">
-        <v>0.2595679036181269</v>
+        <v>0.2549188489186282</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>3504.717564658285</v>
+        <v>3535.07049099131</v>
       </c>
       <c r="R9">
-        <v>3504.717564658285</v>
+        <v>31815.63441892179</v>
       </c>
       <c r="S9">
-        <v>0.07577792183753713</v>
+        <v>0.07179971277542517</v>
       </c>
       <c r="T9">
-        <v>0.07577792183753713</v>
+        <v>0.07179971277542517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.5322086178865</v>
+        <v>34.80083866666666</v>
       </c>
       <c r="H10">
-        <v>34.5322086178865</v>
+        <v>104.402516</v>
       </c>
       <c r="I10">
-        <v>0.2595679036181269</v>
+        <v>0.2549188489186281</v>
       </c>
       <c r="J10">
-        <v>0.2595679036181269</v>
+        <v>0.2549188489186282</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>4847.415563789718</v>
+        <v>4942.651381933987</v>
       </c>
       <c r="R10">
-        <v>4847.415563789718</v>
+        <v>44483.86243740589</v>
       </c>
       <c r="S10">
-        <v>0.1048093236987367</v>
+        <v>0.1003886486779511</v>
       </c>
       <c r="T10">
-        <v>0.1048093236987367</v>
+        <v>0.1003886486779511</v>
       </c>
     </row>
   </sheetData>
